--- a/biology/Zoologie/Chrysopa/Chrysopa.xlsx
+++ b/biology/Zoologie/Chrysopa/Chrysopa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysopa (les chrysopes) est un genre d'insectes prédateurs de la famille des Chrysopidae et de l'ordre des névroptères, dont les larves et les adultes ont pour proies principalement les acariens, les cochenilles, les psylles, les pucerons, les thrips, les œufs de lépidoptères et d'aleurodes sur les arbres fruitiers, la vigne, les grandes cultures, les cultures légumières et les cultures ornementales.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Chrysopa chi Fitch, 1855
